--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col4a5-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col4a5-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Col4a5</t>
+  </si>
+  <si>
+    <t>Cd93</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Col4a5</t>
-  </si>
-  <si>
-    <t>Cd93</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.126664</v>
+        <v>3.579479333333333</v>
       </c>
       <c r="H2">
-        <v>0.379992</v>
+        <v>10.738438</v>
       </c>
       <c r="I2">
-        <v>0.02685339687075019</v>
+        <v>0.7468615428870774</v>
       </c>
       <c r="J2">
-        <v>0.02685339687075019</v>
+        <v>0.7468615428870773</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>229.5846506666667</v>
+        <v>211.2725676666666</v>
       </c>
       <c r="N2">
-        <v>688.753952</v>
+        <v>633.8177029999999</v>
       </c>
       <c r="O2">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="P2">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="Q2">
-        <v>29.08011019204267</v>
+        <v>756.2457896631014</v>
       </c>
       <c r="R2">
-        <v>261.720991728384</v>
+        <v>6806.212106967912</v>
       </c>
       <c r="S2">
-        <v>0.01351581777263749</v>
+        <v>0.472363406856591</v>
       </c>
       <c r="T2">
-        <v>0.01351581777263748</v>
+        <v>0.4723634068565908</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.126664</v>
+        <v>3.579479333333333</v>
       </c>
       <c r="H3">
-        <v>0.379992</v>
+        <v>10.738438</v>
       </c>
       <c r="I3">
-        <v>0.02685339687075019</v>
+        <v>0.7468615428870774</v>
       </c>
       <c r="J3">
-        <v>0.02685339687075019</v>
+        <v>0.7468615428870773</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>135.7283196666666</v>
+        <v>59.36675400000001</v>
       </c>
       <c r="N3">
-        <v>407.1849589999999</v>
+        <v>178.100262</v>
       </c>
       <c r="O3">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="P3">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="Q3">
-        <v>17.19189188225866</v>
+        <v>212.502069030084</v>
       </c>
       <c r="R3">
-        <v>154.727026940328</v>
+        <v>1912.518621270756</v>
       </c>
       <c r="S3">
-        <v>0.007990426319329294</v>
+        <v>0.1327322448113625</v>
       </c>
       <c r="T3">
-        <v>0.007990426319329292</v>
+        <v>0.1327322448113625</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.126664</v>
+        <v>3.579479333333333</v>
       </c>
       <c r="H4">
-        <v>0.379992</v>
+        <v>10.738438</v>
       </c>
       <c r="I4">
-        <v>0.02685339687075019</v>
+        <v>0.7468615428870774</v>
       </c>
       <c r="J4">
-        <v>0.02685339687075019</v>
+        <v>0.7468615428870773</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5972149999999999</v>
+        <v>0.4593846666666666</v>
       </c>
       <c r="N4">
-        <v>1.791645</v>
+        <v>1.378154</v>
       </c>
       <c r="O4">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="P4">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="Q4">
-        <v>0.07564564075999999</v>
+        <v>1.644357920383555</v>
       </c>
       <c r="R4">
-        <v>0.68081076684</v>
+        <v>14.799221283452</v>
       </c>
       <c r="S4">
-        <v>3.515848767609988E-05</v>
+        <v>0.001027092672753948</v>
       </c>
       <c r="T4">
-        <v>3.515848767609988E-05</v>
+        <v>0.001027092672753948</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.126664</v>
+        <v>3.579479333333333</v>
       </c>
       <c r="H5">
-        <v>0.379992</v>
+        <v>10.738438</v>
       </c>
       <c r="I5">
-        <v>0.02685339687075019</v>
+        <v>0.7468615428870774</v>
       </c>
       <c r="J5">
-        <v>0.02685339687075019</v>
+        <v>0.7468615428870773</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>90.23148833333333</v>
+        <v>62.94782133333333</v>
       </c>
       <c r="N5">
-        <v>270.694465</v>
+        <v>188.843464</v>
       </c>
       <c r="O5">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="P5">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="Q5">
-        <v>11.42908123825333</v>
+        <v>225.3204255410257</v>
       </c>
       <c r="R5">
-        <v>102.86173114428</v>
+        <v>2027.883829869231</v>
       </c>
       <c r="S5">
-        <v>0.005311994291107307</v>
+        <v>0.14073879854637</v>
       </c>
       <c r="T5">
-        <v>0.005311994291107305</v>
+        <v>0.14073879854637</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.579479333333333</v>
+        <v>1.213215333333333</v>
       </c>
       <c r="H6">
-        <v>10.738438</v>
+        <v>3.639646</v>
       </c>
       <c r="I6">
-        <v>0.758867390329125</v>
+        <v>0.2531384571129227</v>
       </c>
       <c r="J6">
-        <v>0.758867390329125</v>
+        <v>0.2531384571129227</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>229.5846506666667</v>
+        <v>211.2725676666666</v>
       </c>
       <c r="N6">
-        <v>688.753952</v>
+        <v>633.8177029999999</v>
       </c>
       <c r="O6">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="P6">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="Q6">
-        <v>821.7935123118862</v>
+        <v>256.3191186059042</v>
       </c>
       <c r="R6">
-        <v>7396.141610806975</v>
+        <v>2306.872067453138</v>
       </c>
       <c r="S6">
-        <v>0.3819521757583468</v>
+        <v>0.1601010858666748</v>
       </c>
       <c r="T6">
-        <v>0.3819521757583468</v>
+        <v>0.1601010858666748</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.579479333333333</v>
+        <v>1.213215333333333</v>
       </c>
       <c r="H7">
-        <v>10.738438</v>
+        <v>3.639646</v>
       </c>
       <c r="I7">
-        <v>0.758867390329125</v>
+        <v>0.2531384571129227</v>
       </c>
       <c r="J7">
-        <v>0.758867390329125</v>
+        <v>0.2531384571129227</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>135.7283196666666</v>
+        <v>59.36675400000001</v>
       </c>
       <c r="N7">
-        <v>407.1849589999999</v>
+        <v>178.100262</v>
       </c>
       <c r="O7">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="P7">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="Q7">
-        <v>485.8367151948934</v>
+        <v>72.02465624302801</v>
       </c>
       <c r="R7">
-        <v>4372.530436754041</v>
+        <v>648.221906187252</v>
       </c>
       <c r="S7">
-        <v>0.2258065896747453</v>
+        <v>0.04498777046519208</v>
       </c>
       <c r="T7">
-        <v>0.2258065896747453</v>
+        <v>0.04498777046519208</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.579479333333333</v>
+        <v>1.213215333333333</v>
       </c>
       <c r="H8">
-        <v>10.738438</v>
+        <v>3.639646</v>
       </c>
       <c r="I8">
-        <v>0.758867390329125</v>
+        <v>0.2531384571129227</v>
       </c>
       <c r="J8">
-        <v>0.758867390329125</v>
+        <v>0.2531384571129227</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5972149999999999</v>
+        <v>0.4593846666666666</v>
       </c>
       <c r="N8">
-        <v>1.791645</v>
+        <v>1.378154</v>
       </c>
       <c r="O8">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="P8">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="Q8">
-        <v>2.137718750056666</v>
+        <v>0.5573325214982221</v>
       </c>
       <c r="R8">
-        <v>19.23946875051</v>
+        <v>5.015992693484</v>
       </c>
       <c r="S8">
-        <v>0.0009935662858259189</v>
+        <v>0.0003481189478412239</v>
       </c>
       <c r="T8">
-        <v>0.0009935662858259189</v>
+        <v>0.0003481189478412239</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.579479333333333</v>
+        <v>1.213215333333333</v>
       </c>
       <c r="H9">
-        <v>10.738438</v>
+        <v>3.639646</v>
       </c>
       <c r="I9">
-        <v>0.758867390329125</v>
+        <v>0.2531384571129227</v>
       </c>
       <c r="J9">
-        <v>0.758867390329125</v>
+        <v>0.2531384571129227</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,276 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>90.23148833333333</v>
+        <v>62.94782133333333</v>
       </c>
       <c r="N9">
-        <v>270.694465</v>
+        <v>188.843464</v>
       </c>
       <c r="O9">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="P9">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="Q9">
-        <v>322.9817477050744</v>
+        <v>76.36926204152711</v>
       </c>
       <c r="R9">
-        <v>2906.835729345669</v>
+        <v>687.3233583737439</v>
       </c>
       <c r="S9">
-        <v>0.1501150586102069</v>
+        <v>0.04770148183321461</v>
       </c>
       <c r="T9">
-        <v>0.1501150586102069</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.010727333333333</v>
-      </c>
-      <c r="H10">
-        <v>3.032182</v>
-      </c>
-      <c r="I10">
-        <v>0.2142792128001249</v>
-      </c>
-      <c r="J10">
-        <v>0.2142792128001248</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>229.5846506666667</v>
-      </c>
-      <c r="N10">
-        <v>688.753952</v>
-      </c>
-      <c r="O10">
-        <v>0.5033187360873315</v>
-      </c>
-      <c r="P10">
-        <v>0.5033187360873315</v>
-      </c>
-      <c r="Q10">
-        <v>232.0474817425849</v>
-      </c>
-      <c r="R10">
-        <v>2088.427335683264</v>
-      </c>
-      <c r="S10">
-        <v>0.1078507425563472</v>
-      </c>
-      <c r="T10">
-        <v>0.1078507425563472</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.010727333333333</v>
-      </c>
-      <c r="H11">
-        <v>3.032182</v>
-      </c>
-      <c r="I11">
-        <v>0.2142792128001249</v>
-      </c>
-      <c r="J11">
-        <v>0.2142792128001248</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>135.7283196666666</v>
-      </c>
-      <c r="N11">
-        <v>407.1849589999999</v>
-      </c>
-      <c r="O11">
-        <v>0.2975573763642838</v>
-      </c>
-      <c r="P11">
-        <v>0.2975573763642838</v>
-      </c>
-      <c r="Q11">
-        <v>137.1843225945042</v>
-      </c>
-      <c r="R11">
-        <v>1234.658903350538</v>
-      </c>
-      <c r="S11">
-        <v>0.0637603603702092</v>
-      </c>
-      <c r="T11">
-        <v>0.06376036037020918</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1.010727333333333</v>
-      </c>
-      <c r="H12">
-        <v>3.032182</v>
-      </c>
-      <c r="I12">
-        <v>0.2142792128001249</v>
-      </c>
-      <c r="J12">
-        <v>0.2142792128001248</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.5972149999999999</v>
-      </c>
-      <c r="N12">
-        <v>1.791645</v>
-      </c>
-      <c r="O12">
-        <v>0.001309275241613694</v>
-      </c>
-      <c r="P12">
-        <v>0.001309275241613694</v>
-      </c>
-      <c r="Q12">
-        <v>0.6036215243766666</v>
-      </c>
-      <c r="R12">
-        <v>5.432593719389999</v>
-      </c>
-      <c r="S12">
-        <v>0.0002805504681116757</v>
-      </c>
-      <c r="T12">
-        <v>0.0002805504681116757</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.010727333333333</v>
-      </c>
-      <c r="H13">
-        <v>3.032182</v>
-      </c>
-      <c r="I13">
-        <v>0.2142792128001249</v>
-      </c>
-      <c r="J13">
-        <v>0.2142792128001248</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>90.23148833333333</v>
-      </c>
-      <c r="N13">
-        <v>270.694465</v>
-      </c>
-      <c r="O13">
-        <v>0.197814612306771</v>
-      </c>
-      <c r="P13">
-        <v>0.197814612306771</v>
-      </c>
-      <c r="Q13">
-        <v>91.19943158584778</v>
-      </c>
-      <c r="R13">
-        <v>820.7948842726298</v>
-      </c>
-      <c r="S13">
-        <v>0.04238755940545678</v>
-      </c>
-      <c r="T13">
-        <v>0.04238755940545677</v>
+        <v>0.04770148183321461</v>
       </c>
     </row>
   </sheetData>
